--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
@@ -537,10 +537,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05115566666666666</v>
+        <v>0.1038603333333333</v>
       </c>
       <c r="H2">
-        <v>0.153467</v>
+        <v>0.311581</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.078423333333333</v>
+        <v>1.594873333333333</v>
       </c>
       <c r="N2">
-        <v>9.23527</v>
+        <v>4.78462</v>
       </c>
       <c r="O2">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272211</v>
       </c>
       <c r="P2">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272213</v>
       </c>
       <c r="Q2">
-        <v>0.1574787978988889</v>
+        <v>0.1656440760244444</v>
       </c>
       <c r="R2">
-        <v>1.41730918109</v>
+        <v>1.49079668422</v>
       </c>
       <c r="S2">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272211</v>
       </c>
       <c r="T2">
-        <v>0.2543225865010234</v>
+        <v>0.09372679355272213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05115566666666666</v>
+        <v>0.1038603333333333</v>
       </c>
       <c r="H3">
-        <v>0.153467</v>
+        <v>0.311581</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>13.736331</v>
       </c>
       <c r="O3">
-        <v>0.378273643212834</v>
+        <v>0.2690834924840127</v>
       </c>
       <c r="P3">
-        <v>0.3782736432128339</v>
+        <v>0.2690834924840128</v>
       </c>
       <c r="Q3">
-        <v>0.234230389953</v>
+        <v>0.4755533054789999</v>
       </c>
       <c r="R3">
-        <v>2.108073509577</v>
+        <v>4.279979749311</v>
       </c>
       <c r="S3">
-        <v>0.378273643212834</v>
+        <v>0.2690834924840127</v>
       </c>
       <c r="T3">
-        <v>0.3782736432128339</v>
+        <v>0.2690834924840128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05115566666666666</v>
+        <v>0.1038603333333333</v>
       </c>
       <c r="H4">
-        <v>0.153467</v>
+        <v>0.311581</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.574363333333334</v>
+        <v>4.495828</v>
       </c>
       <c r="N4">
-        <v>10.72309</v>
+        <v>13.487484</v>
       </c>
       <c r="O4">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="P4">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="Q4">
-        <v>0.1828489392255556</v>
+        <v>0.4669381946893333</v>
       </c>
       <c r="R4">
-        <v>1.64564045303</v>
+        <v>4.202443752204</v>
       </c>
       <c r="S4">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
       <c r="T4">
-        <v>0.2952944509563076</v>
+        <v>0.2642087832291055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05115566666666666</v>
+        <v>0.1038603333333333</v>
       </c>
       <c r="H5">
-        <v>0.153467</v>
+        <v>0.311581</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8728403333333333</v>
+        <v>6.346716</v>
       </c>
       <c r="N5">
-        <v>2.618521</v>
+        <v>19.040148</v>
       </c>
       <c r="O5">
-        <v>0.07210931932983511</v>
+        <v>0.3729809307341596</v>
       </c>
       <c r="P5">
-        <v>0.07210931932983509</v>
+        <v>0.3729809307341597</v>
       </c>
       <c r="Q5">
-        <v>0.04465072914522222</v>
+        <v>0.659172039332</v>
       </c>
       <c r="R5">
-        <v>0.401856562307</v>
+        <v>5.932548353988</v>
       </c>
       <c r="S5">
-        <v>0.07210931932983511</v>
+        <v>0.3729809307341596</v>
       </c>
       <c r="T5">
-        <v>0.07210931932983509</v>
+        <v>0.3729809307341597</v>
       </c>
     </row>
   </sheetData>
